--- a/Data/Obj1.xlsx
+++ b/Data/Obj1.xlsx
@@ -653,10 +653,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -680,9 +680,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,13 +692,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -718,8 +710,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,36 +810,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,52 +819,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,37 +833,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -875,67 +911,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,25 +929,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -989,25 +953,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,6 +1027,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1038,24 +1047,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,6 +1066,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1086,17 +1086,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1124,153 +1113,164 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4491,7 +4491,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -4513,7 +4513,7 @@
         <v>199</v>
       </c>
       <c r="B2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4536,7 +4536,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -4558,7 +4558,7 @@
         <v>201</v>
       </c>
       <c r="B2">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -4626,7 +4626,7 @@
   <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
@@ -7302,6 +7302,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D190">
+    <extLst/>
+  </autoFilter>
   <sortState ref="A2:D190">
     <sortCondition ref="B2"/>
   </sortState>

--- a/Data/Obj1.xlsx
+++ b/Data/Obj1.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26560" windowHeight="10500" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27900" windowHeight="7280" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Contamination(spec)" sheetId="2" r:id="rId1"/>
-    <sheet name="ContamAna(all)" sheetId="3" r:id="rId2"/>
-    <sheet name="ContamAna(Illum)" sheetId="7" r:id="rId3"/>
-    <sheet name="ContamAna(Pacb)" sheetId="8" r:id="rId4"/>
-    <sheet name="ContamLevel" sheetId="5" r:id="rId5"/>
+    <sheet name="AxenicAna(all)" sheetId="3" r:id="rId2"/>
+    <sheet name="AxenicAna(Illum)" sheetId="7" r:id="rId3"/>
+    <sheet name="AxenicAna(Pacb)" sheetId="8" r:id="rId4"/>
+    <sheet name="MicrobComp" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ContamLevel!$A$1:$D$190</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">MicrobComp!$A$1:$D$190</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Contamination(spec)'!$A$1:$D$190</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -621,28 +621,28 @@
     <t>Number of Isolates</t>
   </si>
   <si>
-    <t>Contaminated isolates</t>
-  </si>
-  <si>
-    <t>Uncontaminated isolates</t>
-  </si>
-  <si>
-    <t>Contaminated Illumina isolates</t>
-  </si>
-  <si>
-    <t>Uncontaminated Illumina isolates</t>
+    <t>non-axenic isolates</t>
+  </si>
+  <si>
+    <t>axenic isolates</t>
+  </si>
+  <si>
+    <t>non-axenic Illumina isolates</t>
+  </si>
+  <si>
+    <t>axenic Illumina isolates</t>
   </si>
   <si>
     <t>Pacbio</t>
   </si>
   <si>
-    <t>Contaminated Pacbio isolates</t>
-  </si>
-  <si>
-    <t>Uncontaminated Pacbio isolates</t>
-  </si>
-  <si>
-    <t>Cyanobacerial</t>
+    <t>non-axenic Pacbio isolates</t>
+  </si>
+  <si>
+    <t>axenic Pacbio isolates</t>
+  </si>
+  <si>
+    <t>Cyanobacterial</t>
   </si>
   <si>
     <t>Non-cyanobacterial</t>
@@ -653,10 +653,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -680,8 +680,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,9 +726,47 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -711,53 +779,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -772,37 +802,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -810,15 +818,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,7 +839,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,19 +983,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,61 +1001,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,73 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,21 +1037,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1068,9 +1053,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,15 +1073,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,11 +1094,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1129,148 +1129,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4491,7 +4491,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -4536,7 +4536,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -4581,7 +4581,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -4626,7 +4626,7 @@
   <dimension ref="A1:H190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>

--- a/Data/Obj1.xlsx
+++ b/Data/Obj1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="7280" firstSheet="1" activeTab="4"/>
+    <workbookView windowWidth="27900" windowHeight="7280" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Contamination(spec)" sheetId="2" r:id="rId1"/>
@@ -621,25 +621,25 @@
     <t>Number of Isolates</t>
   </si>
   <si>
-    <t>non-axenic isolates</t>
-  </si>
-  <si>
-    <t>axenic isolates</t>
-  </si>
-  <si>
-    <t>non-axenic Illumina isolates</t>
-  </si>
-  <si>
-    <t>axenic Illumina isolates</t>
+    <t>Non-axenic isolates</t>
+  </si>
+  <si>
+    <t>Axenic isolates</t>
+  </si>
+  <si>
+    <t>Non-axenic Illumina isolates</t>
+  </si>
+  <si>
+    <t>Axenic Illumina isolates</t>
   </si>
   <si>
     <t>Pacbio</t>
   </si>
   <si>
-    <t>non-axenic Pacbio isolates</t>
-  </si>
-  <si>
-    <t>axenic Pacbio isolates</t>
+    <t>Non-axenic Pacbio isolates</t>
+  </si>
+  <si>
+    <t>Axenic Pacbio isolates</t>
   </si>
   <si>
     <t>Cyanobacterial</t>
@@ -4491,7 +4491,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -4536,7 +4536,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -4580,8 +4580,8 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -4625,7 +4625,7 @@
   <sheetPr/>
   <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/Data/Obj1.xlsx
+++ b/Data/Obj1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="7280" firstSheet="1" activeTab="3"/>
+    <workbookView windowWidth="26640" windowHeight="11920"/>
   </bookViews>
   <sheets>
     <sheet name="Contamination(spec)" sheetId="2" r:id="rId1"/>
@@ -653,10 +653,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -680,9 +680,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,7 +781,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -709,31 +794,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,69 +817,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -833,13 +833,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -863,19 +881,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -887,121 +935,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1014,6 +948,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,6 +1036,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1051,13 +1075,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,17 +1105,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1100,159 +1124,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1261,16 +1261,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1619,8 +1619,8 @@
   <sheetPr/>
   <dimension ref="A1:E190"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="A162" sqref="A162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -4580,7 +4580,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
